--- a/tests/data/concept-scheme-with-cycles.xlsx
+++ b/tests/data/concept-scheme-with-cycles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlinke\MyProg_local\TA1\voc4cat-tool\tests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\MyProg\gh-nfdi4cat\voc4cat-tool\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBCB38A-A1D9-476F-9C77-5A0DB3AC3B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA649E4-75DC-4DBC-B456-8F712A3A1E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6465" windowWidth="28800" windowHeight="10935" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -626,7 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -655,9 +655,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -682,7 +679,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -698,7 +694,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -710,13 +706,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -728,20 +718,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -752,6 +736,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -770,37 +760,7 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB47CFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB47CFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FFB47CFF"/>
@@ -1085,400 +1045,400 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="35" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="20"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="35" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="20"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="38" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="20"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="39" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="41" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="20"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="39" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="20"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="20"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2459,6 +2419,11 @@
     <row r="1005" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H10:J10"/>
@@ -2469,50 +2434,35 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A25:G25"/>
   </mergeCells>
-  <conditionalFormatting sqref="H17:J18 K1:K8 K17:K28 H3:J7 H10:J10 H8 K10:K15 H13:J13 H14 A18:G18 A15:J15 A19:J28 A10:G14 A2:G8 A1:J1 A9:K9">
-    <cfRule type="containsBlanks" dxfId="8" priority="13">
+  <conditionalFormatting sqref="A16:C17">
+    <cfRule type="containsBlanks" dxfId="5" priority="3">
+      <formula>LEN(TRIM(A16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G2 A3:J4">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="14">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:J1 K1:K8 A2:G8 H8 A9:K9 H10:J10 A10:G14 K10:K15 H14 A15:J15 H17:J18 K17:K28 A18:G18 A19:J28">
+    <cfRule type="containsBlanks" dxfId="3" priority="13">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:J4 A2:G2">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="14">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17">
-    <cfRule type="containsBlanks" dxfId="6" priority="10">
-      <formula>LEN(TRIM(A17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:J2">
-    <cfRule type="containsBlanks" dxfId="5" priority="7">
+  <conditionalFormatting sqref="H2:J7">
+    <cfRule type="containsBlanks" dxfId="2" priority="7">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16 H16:K16">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(C16))=0</formula>
+  <conditionalFormatting sqref="H12:J13">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(H12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(C17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:J12">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(H12))=0</formula>
+  <conditionalFormatting sqref="H16:K16">
+    <cfRule type="containsBlanks" dxfId="0" priority="5">
+      <formula>LEN(TRIM(H16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2537,19 +2487,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="29" style="19" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2583,7 +2533,7 @@
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2631,7 +2581,7 @@
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2645,7 +2595,7 @@
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2653,7 +2603,7 @@
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -5699,204 +5649,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="26" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="26" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="26" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="28" t="s">
+      <c r="G6" s="27"/>
+      <c r="H6" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="26" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6427,7 +6377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -6435,19 +6385,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="22" customWidth="1"/>
-    <col min="2" max="6" width="25.140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" style="20" customWidth="1"/>
+    <col min="2" max="6" width="25.140625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6468,104 +6418,11 @@
       <c r="F2" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A5:A523,1), "")</f>
-        <v/>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A11:A523,1), "")</f>
-        <v/>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A11:A523,1), "")</f>
-        <v/>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A11:A523,1), "")</f>
-        <v/>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A15:A523,1), "")</f>
-        <v/>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A15,Concepts!A15:A523,1), "")</f>
-        <v/>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A17,Concepts!A17:A523,1), "")</f>
-        <v/>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A18,Concepts!A18:A523,1), "")</f>
-        <v/>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A10">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6591,61 +6448,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6690,16 +6547,16 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
